--- a/data/MN rates.xlsx
+++ b/data/MN rates.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahstanton/Documents/UW classes/info491/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahstanton/Documents/UW classes/info491/skeleton2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="702" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Numbers 2017-2021" sheetId="1" r:id="rId1"/>
@@ -807,9 +807,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -827,6 +824,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,11 +948,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="344757952"/>
-        <c:axId val="348243760"/>
+        <c:axId val="-1398549248"/>
+        <c:axId val="-1471190864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344757952"/>
+        <c:axId val="-1398549248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348243760"/>
+        <c:crossAx val="-1471190864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348243760"/>
+        <c:axId val="-1471190864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344757952"/>
+        <c:crossAx val="-1398549248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1162,11 +1162,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="369347728"/>
-        <c:axId val="370099664"/>
+        <c:axId val="-1365345456"/>
+        <c:axId val="-1365342704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="369347728"/>
+        <c:axId val="-1365345456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370099664"/>
+        <c:crossAx val="-1365342704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370099664"/>
+        <c:axId val="-1365342704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369347728"/>
+        <c:crossAx val="-1365345456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,8 +1541,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="371631088"/>
-        <c:axId val="371633408"/>
+        <c:axId val="-1365310032"/>
+        <c:axId val="-1365307280"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1658,7 +1658,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371631088"/>
+        <c:axId val="-1365310032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371633408"/>
+        <c:crossAx val="-1365307280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371633408"/>
+        <c:axId val="-1365307280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1761,7 +1761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371631088"/>
+        <c:crossAx val="-1365310032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,8 +2037,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="371657968"/>
-        <c:axId val="371660288"/>
+        <c:axId val="-1433864208"/>
+        <c:axId val="-1433902448"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2154,7 +2154,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="371657968"/>
+        <c:axId val="-1433864208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371660288"/>
+        <c:crossAx val="-1433902448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2205,7 +2205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371660288"/>
+        <c:axId val="-1433902448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000.0"/>
@@ -2257,7 +2257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371657968"/>
+        <c:crossAx val="-1433864208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4500,7 +4500,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4541,7 +4541,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4584,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4620,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4966,92 +4966,92 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B1" s="11"/>
-      <c r="C1" s="93">
+      <c r="C1" s="92">
         <v>2011</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="93">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="92">
         <v>2016</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="93">
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="92">
         <v>2017</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="90">
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="89">
         <v>2018</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="90">
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="89">
         <v>2019</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="89">
         <v>2020</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="90">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="89">
         <v>2021</v>
       </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="92"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="36"/>
-      <c r="Y1" s="89">
+      <c r="Y1" s="95">
         <v>2022</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89">
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95">
         <v>2023</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89">
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95">
         <v>2024</v>
       </c>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95">
         <v>2025</v>
       </c>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89">
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95">
         <v>2026</v>
       </c>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89">
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95">
         <v>2027</v>
       </c>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89">
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95">
         <v>2028</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89">
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95">
         <v>2029</v>
       </c>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89">
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95">
         <v>2030</v>
       </c>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89">
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95">
         <v>2031</v>
       </c>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
+      <c r="BA1" s="95"/>
+      <c r="BB1" s="95"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -12863,13 +12863,6 @@
     <sortCondition descending="1" ref="C3:C12"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -12880,6 +12873,13 @@
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12892,8 +12892,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BC136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13436,7 +13436,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" s="6">
-        <f>'Population Numbers 2017-2021'!H4*B4*C4*D4*E4</f>
+        <f>'Population Numbers 2017-2021'!H4*$B4*$C4*$D4*$E4</f>
         <v>11623.814278211521</v>
       </c>
       <c r="I4" s="6">
@@ -13652,7 +13652,7 @@
         <v>0.4</v>
       </c>
       <c r="H5" s="6">
-        <f>'Population Numbers 2017-2021'!H5*B5*C5*D5*E5</f>
+        <f>'Population Numbers 2017-2021'!H5*$B5*$C5*$D5*$E5</f>
         <v>6534.81091507365</v>
       </c>
       <c r="I5" s="6">
@@ -13868,7 +13868,7 @@
         <v>0.4</v>
       </c>
       <c r="H6" s="6">
-        <f>'Population Numbers 2017-2021'!H6*B6*C6*D6*E6</f>
+        <f>'Population Numbers 2017-2021'!H6*$B6*$C6*$D6*$E6</f>
         <v>4467.6783559912928</v>
       </c>
       <c r="I6" s="6">
@@ -14084,7 +14084,7 @@
         <v>0.4</v>
       </c>
       <c r="H7" s="6">
-        <f>'Population Numbers 2017-2021'!H7*B7*C7*D7*E7</f>
+        <f>'Population Numbers 2017-2021'!H7*$B7*$C7*$D7*$E7</f>
         <v>3671.975352502338</v>
       </c>
       <c r="I7" s="6">
@@ -14300,7 +14300,7 @@
         <v>0.4</v>
       </c>
       <c r="H8" s="6">
-        <f>'Population Numbers 2017-2021'!H8*B8*C8*D8*E8</f>
+        <f>'Population Numbers 2017-2021'!H8*$B8*$C8*$D8*$E8</f>
         <v>9020.1139437891234</v>
       </c>
       <c r="I8" s="6">
@@ -14516,7 +14516,7 @@
         <v>0.4</v>
       </c>
       <c r="H9" s="6">
-        <f>'Population Numbers 2017-2021'!H9*B9*C9*D9*E9</f>
+        <f>'Population Numbers 2017-2021'!H9*$B9*$C9*$D9*$E9</f>
         <v>4430.0725861792953</v>
       </c>
       <c r="I9" s="6">
@@ -14732,7 +14732,7 @@
         <v>0.4</v>
       </c>
       <c r="H10" s="6">
-        <f>'Population Numbers 2017-2021'!H10*B10*C10*D10*E10</f>
+        <f>'Population Numbers 2017-2021'!H10*$B10*$C10*$D10*$E10</f>
         <v>6202.9669309146002</v>
       </c>
       <c r="I10" s="6">
@@ -14948,7 +14948,7 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="6">
-        <f>'Population Numbers 2017-2021'!H11*B11*C11*D11*E11</f>
+        <f>'Population Numbers 2017-2021'!H11*$B11*$C11*$D11*$E11</f>
         <v>4053.439438705801</v>
       </c>
       <c r="I11" s="6">
@@ -15164,7 +15164,7 @@
         <v>0.4</v>
       </c>
       <c r="H12" s="6">
-        <f>'Population Numbers 2017-2021'!H12*B12*C12*D12*E12</f>
+        <f>'Population Numbers 2017-2021'!H12*$B12*$C12*$D12*$E12</f>
         <v>2561.1254406592807</v>
       </c>
       <c r="I12" s="6">
@@ -15380,7 +15380,7 @@
         <v>0.4</v>
       </c>
       <c r="H13" s="6">
-        <f>'Population Numbers 2017-2021'!H13*B13*C13*D13*E13</f>
+        <f>'Population Numbers 2017-2021'!H13*$B13*$C13*$D13*$E13</f>
         <v>2181.3331764080995</v>
       </c>
       <c r="I13" s="6">
@@ -15595,8 +15595,8 @@
       <c r="G14" s="27">
         <v>0.4</v>
       </c>
-      <c r="H14" s="41">
-        <f>'Population Numbers 2017-2021'!H14*B14*C14*D14*E14</f>
+      <c r="H14" s="6">
+        <f>'Population Numbers 2017-2021'!H14*$B14*$C14*$D14*$E14</f>
         <v>3202.6387302089397</v>
       </c>
       <c r="I14" s="41">
@@ -15811,8 +15811,8 @@
       <c r="G15" s="27">
         <v>0.4</v>
       </c>
-      <c r="H15" s="41">
-        <f>'Population Numbers 2017-2021'!H15*B15*C15*D15*E15</f>
+      <c r="H15" s="6">
+        <f>'Population Numbers 2017-2021'!H15*$B15*$C15*$D15*$E15</f>
         <v>6105.170176617602</v>
       </c>
       <c r="I15" s="41">
@@ -16027,8 +16027,8 @@
       <c r="G16" s="27">
         <v>0.4</v>
       </c>
-      <c r="H16" s="41">
-        <f>'Population Numbers 2017-2021'!H16*B16*C16*D16*E16</f>
+      <c r="H16" s="6">
+        <f>'Population Numbers 2017-2021'!H16*$B16*$C16*$D16*$E16</f>
         <v>6001.5150728740373</v>
       </c>
       <c r="I16" s="41">
@@ -16243,8 +16243,8 @@
       <c r="G17" s="27">
         <v>0.4</v>
       </c>
-      <c r="H17" s="41">
-        <f>'Population Numbers 2017-2021'!H17*B17*C17*D17*E17</f>
+      <c r="H17" s="6">
+        <f>'Population Numbers 2017-2021'!H17*$B17*$C17*$D17*$E17</f>
         <v>2221.723384826551</v>
       </c>
       <c r="I17" s="41">
@@ -16459,8 +16459,8 @@
       <c r="G18" s="27">
         <v>0.4</v>
       </c>
-      <c r="H18" s="41">
-        <f>'Population Numbers 2017-2021'!H18*B18*C18*D18*E18</f>
+      <c r="H18" s="6">
+        <f>'Population Numbers 2017-2021'!H18*$B18*$C18*$D18*$E18</f>
         <v>2086.09822550745</v>
       </c>
       <c r="I18" s="41">
@@ -16675,8 +16675,8 @@
       <c r="G19" s="27">
         <v>0.4</v>
       </c>
-      <c r="H19" s="41">
-        <f>'Population Numbers 2017-2021'!H19*B19*C19*D19*E19</f>
+      <c r="H19" s="6">
+        <f>'Population Numbers 2017-2021'!H19*$B19*$C19*$D19*$E19</f>
         <v>1375.7633809920001</v>
       </c>
       <c r="I19" s="41">
@@ -16891,8 +16891,8 @@
       <c r="G20" s="27">
         <v>0.4</v>
       </c>
-      <c r="H20" s="41">
-        <f>'Population Numbers 2017-2021'!H20*B20*C20*D20*E20</f>
+      <c r="H20" s="6">
+        <f>'Population Numbers 2017-2021'!H20*$B20*$C20*$D20*$E20</f>
         <v>1720.5976560808206</v>
       </c>
       <c r="I20" s="41">
@@ -17107,8 +17107,8 @@
       <c r="G21" s="27">
         <v>0.4</v>
       </c>
-      <c r="H21" s="41">
-        <f>'Population Numbers 2017-2021'!H21*B21*C21*D21*E21</f>
+      <c r="H21" s="6">
+        <f>'Population Numbers 2017-2021'!H21*$B21*$C21*$D21*$E21</f>
         <v>2578.2639323512503</v>
       </c>
       <c r="I21" s="41">
@@ -17323,8 +17323,8 @@
       <c r="G22" s="27">
         <v>0.4</v>
       </c>
-      <c r="H22" s="41">
-        <f>'Population Numbers 2017-2021'!H22*B22*C22*D22*E22</f>
+      <c r="H22" s="6">
+        <f>'Population Numbers 2017-2021'!H22*$B22*$C22*$D22*$E22</f>
         <v>667.2788709972001</v>
       </c>
       <c r="I22" s="41">
@@ -17539,8 +17539,8 @@
       <c r="G23" s="27">
         <v>0.4</v>
       </c>
-      <c r="H23" s="41">
-        <f>'Population Numbers 2017-2021'!H23*B23*C23*D23*E23</f>
+      <c r="H23" s="6">
+        <f>'Population Numbers 2017-2021'!H23*$B23*$C23*$D23*$E23</f>
         <v>696.75887060868013</v>
       </c>
       <c r="I23" s="41">
@@ -17755,8 +17755,8 @@
       <c r="G24" s="27">
         <v>0.4</v>
       </c>
-      <c r="H24" s="41">
-        <f>'Population Numbers 2017-2021'!H24*B24*C24*D24*E24</f>
+      <c r="H24" s="6">
+        <f>'Population Numbers 2017-2021'!H24*$B24*$C24*$D24*$E24</f>
         <v>183.96393462183002</v>
       </c>
       <c r="I24" s="41">
@@ -17971,8 +17971,8 @@
       <c r="G25" s="27">
         <v>0.4</v>
       </c>
-      <c r="H25" s="41">
-        <f>'Population Numbers 2017-2021'!H25*B25*C25*D25*E25</f>
+      <c r="H25" s="6">
+        <f>'Population Numbers 2017-2021'!H25*$B25*$C25*$D25*$E25</f>
         <v>176.82185679675004</v>
       </c>
       <c r="I25" s="41">
@@ -18187,8 +18187,8 @@
       <c r="G26" s="27">
         <v>0.4</v>
       </c>
-      <c r="H26" s="41">
-        <f>'Population Numbers 2017-2021'!H26*B26*C26*D26*E26</f>
+      <c r="H26" s="6">
+        <f>'Population Numbers 2017-2021'!H26*$B26*$C26*$D26*$E26</f>
         <v>177.47037044451002</v>
       </c>
       <c r="I26" s="41">
@@ -18403,8 +18403,8 @@
       <c r="G27" s="27">
         <v>0.4</v>
       </c>
-      <c r="H27" s="41">
-        <f>'Population Numbers 2017-2021'!H27*B27*C27*D27*E27</f>
+      <c r="H27" s="6">
+        <f>'Population Numbers 2017-2021'!H27*$B27*$C27*$D27*$E27</f>
         <v>115.48569637011002</v>
       </c>
       <c r="I27" s="41">
@@ -18619,8 +18619,8 @@
       <c r="G28" s="27">
         <v>0.4</v>
       </c>
-      <c r="H28" s="41">
-        <f>'Population Numbers 2017-2021'!H28*B28*C28*D28*E28</f>
+      <c r="H28" s="6">
+        <f>'Population Numbers 2017-2021'!H28*$B28*$C28*$D28*$E28</f>
         <v>78.960450092039991</v>
       </c>
       <c r="I28" s="41">
@@ -18835,8 +18835,8 @@
       <c r="G29" s="27">
         <v>0.4</v>
       </c>
-      <c r="H29" s="41">
-        <f>'Population Numbers 2017-2021'!H29*B29*C29*D29*E29</f>
+      <c r="H29" s="6">
+        <f>'Population Numbers 2017-2021'!H29*$B29*$C29*$D29*$E29</f>
         <v>225.59215724100002</v>
       </c>
       <c r="I29" s="41">
@@ -19051,8 +19051,8 @@
       <c r="G30" s="27">
         <v>0.4</v>
       </c>
-      <c r="H30" s="41">
-        <f>'Population Numbers 2017-2021'!H30*B30*C30*D30*E30</f>
+      <c r="H30" s="6">
+        <f>'Population Numbers 2017-2021'!H30*$B30*$C30*$D30*$E30</f>
         <v>71.587588661159998</v>
       </c>
       <c r="I30" s="41">
@@ -19267,8 +19267,8 @@
       <c r="G31" s="27">
         <v>0.4</v>
       </c>
-      <c r="H31" s="41">
-        <f>'Population Numbers 2017-2021'!H31*B31*C31*D31*E31</f>
+      <c r="H31" s="6">
+        <f>'Population Numbers 2017-2021'!H31*$B31*$C31*$D31*$E31</f>
         <v>212.36036904720001</v>
       </c>
       <c r="I31" s="41">
@@ -19483,8 +19483,8 @@
       <c r="G32" s="27">
         <v>0.4</v>
       </c>
-      <c r="H32" s="41">
-        <f>'Population Numbers 2017-2021'!H32*B32*C32*D32*E32</f>
+      <c r="H32" s="6">
+        <f>'Population Numbers 2017-2021'!H32*$B32*$C32*$D32*$E32</f>
         <v>87.779656421160013</v>
       </c>
       <c r="I32" s="41">
@@ -19699,8 +19699,8 @@
       <c r="G33" s="27">
         <v>0.4</v>
       </c>
-      <c r="H33" s="41">
-        <f>'Population Numbers 2017-2021'!H33*B33*C33*D33*E33</f>
+      <c r="H33" s="6">
+        <f>'Population Numbers 2017-2021'!H33*$B33*$C33*$D33*$E33</f>
         <v>159.63523558125002</v>
       </c>
       <c r="I33" s="41">
@@ -19915,8 +19915,8 @@
       <c r="G34" s="27">
         <v>0.4</v>
       </c>
-      <c r="H34" s="41">
-        <f>'Population Numbers 2017-2021'!H34*B34*C34*D34*E34</f>
+      <c r="H34" s="6">
+        <f>'Population Numbers 2017-2021'!H34*$B34*$C34*$D34*$E34</f>
         <v>33.725285794200012</v>
       </c>
       <c r="I34" s="41">
@@ -20131,8 +20131,8 @@
       <c r="G35" s="27">
         <v>0.4</v>
       </c>
-      <c r="H35" s="41">
-        <f>'Population Numbers 2017-2021'!H35*B35*C35*D35*E35</f>
+      <c r="H35" s="6">
+        <f>'Population Numbers 2017-2021'!H35*$B35*$C35*$D35*$E35</f>
         <v>24.831121576800005</v>
       </c>
       <c r="I35" s="41">
@@ -20347,8 +20347,8 @@
       <c r="G36" s="27">
         <v>0.4</v>
       </c>
-      <c r="H36" s="41">
-        <f>'Population Numbers 2017-2021'!H36*B36*C36*D36*E36</f>
+      <c r="H36" s="6">
+        <f>'Population Numbers 2017-2021'!H36*$B36*$C36*$D36*$E36</f>
         <v>31.071146155665001</v>
       </c>
       <c r="I36" s="41">
@@ -20563,8 +20563,8 @@
       <c r="G37" s="27">
         <v>0.4</v>
       </c>
-      <c r="H37" s="41">
-        <f>'Population Numbers 2017-2021'!H37*B37*C37*D37*E37</f>
+      <c r="H37" s="6">
+        <f>'Population Numbers 2017-2021'!H37*$B37*$C37*$D37*$E37</f>
         <v>27.658178576820003</v>
       </c>
       <c r="I37" s="41">
@@ -20779,8 +20779,8 @@
       <c r="G38" s="27">
         <v>0.4</v>
       </c>
-      <c r="H38" s="41">
-        <f>'Population Numbers 2017-2021'!H38*B38*C38*D38*E38</f>
+      <c r="H38" s="6">
+        <f>'Population Numbers 2017-2021'!H38*$B38*$C38*$D38*$E38</f>
         <v>12.811684100160001</v>
       </c>
       <c r="I38" s="41">
@@ -21645,7 +21645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27862,6 +27862,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
@@ -27872,12 +27878,6 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27888,7 +27888,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:S38"/>
     </sheetView>
@@ -33731,11 +33731,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AQ21:AS21"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AW21:AY21"/>
     <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:F21"/>
@@ -33748,6 +33743,11 @@
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="AB21:AD21"/>
     <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AQ21:AS21"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AW21:AY21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
